--- a/biology/Botanique/Achnopogon_steyermarkii/Achnopogon_steyermarkii.xlsx
+++ b/biology/Botanique/Achnopogon_steyermarkii/Achnopogon_steyermarkii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Achnopogon steyermakii est une espèce d'arbuste de la famille des Asteraceae, endémique du Venezuela[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Achnopogon steyermakii est une espèce d'arbuste de la famille des Asteraceae, endémique du Venezuela.
 </t>
         </is>
       </c>
@@ -511,11 +523,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'holotype a été récolté en 1964 par le botaniste américain Julian Alfred Steyermark[2] (1909-1988) et décrite pour la première fois en 1967 par le botaniste vénézuélien Leandro Aristeguieta (né en 1923)[2], spécialiste des spermatophytes[3]. L'épithète steyermakii a été choisi en l'honneur de celui qui l'a récolté, Julian Alfred Steyermark.
-Synonymes
-Achnopogon quelchioides Aristeg.[4].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype a été récolté en 1964 par le botaniste américain Julian Alfred Steyermark (1909-1988) et décrite pour la première fois en 1967 par le botaniste vénézuélien Leandro Aristeguieta (né en 1923), spécialiste des spermatophytes. L'épithète steyermakii a été choisi en l'honneur de celui qui l'a récolté, Julian Alfred Steyermark.
+</t>
         </is>
       </c>
     </row>
@@ -540,13 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Distribution et habitat</t>
+          <t>Taxinomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'holotype a été recueilli sur l'Auyan Tepuy à 1 800 mètres d'altitude dans l'État de Bolívar[5]. L'espèce se rencontre entre 1 800 et 2 650 mètres d'altitude[6] bien que l'Auyan Tepuy culmine à 2 410 mètres d'altitude.
-</t>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Achnopogon quelchioides Aristeg..</t>
         </is>
       </c>
     </row>
@@ -571,12 +589,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype a été recueilli sur l'Auyan Tepuy à 1 800 mètres d'altitude dans l'État de Bolívar. L'espèce se rencontre entre 1 800 et 2 650 mètres d'altitude bien que l'Auyan Tepuy culmine à 2 410 mètres d'altitude.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Achnopogon_steyermarkii</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Achnopogon_steyermarkii</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Achnopogon steyermakii est un arbuste mesurant en moyenne 2 mètres de hauteur à l'âge adulte, et jusqu'à 3 mètres au maximum[5]. Les fleurs sessiles sont au nombre de 2 à 3 au bout de la tige[7]. La corolle est blanche, les bractées lisses[7]. Les feuilles en forme de lame sont semi-oblongues à oblongues, peu pétiolées, arrondies à la pointe[7]. La base des feuilles et des tiges sont de couleur brune[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Achnopogon steyermakii est un arbuste mesurant en moyenne 2 mètres de hauteur à l'âge adulte, et jusqu'à 3 mètres au maximum. Les fleurs sessiles sont au nombre de 2 à 3 au bout de la tige. La corolle est blanche, les bractées lisses. Les feuilles en forme de lame sont semi-oblongues à oblongues, peu pétiolées, arrondies à la pointe. La base des feuilles et des tiges sont de couleur brune.
 </t>
         </is>
       </c>
